--- a/hardware/controller-comparison.xlsx
+++ b/hardware/controller-comparison.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10715"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11014"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/hdd/Documents/kicad/kwatch/hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CC6137CF-E4A7-614F-9BFB-FDE794125C4D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8386191B-FD17-164D-83DE-69A0F995F573}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="960" windowWidth="25040" windowHeight="14500" xr2:uid="{3F64FFA5-C3F7-5944-919D-E1EDF7800674}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>MCU</t>
   </si>
@@ -63,9 +63,6 @@
 * bt 5.0</t>
   </si>
   <si>
-    <t>STM32</t>
-  </si>
-  <si>
     <t>MT2523D</t>
   </si>
   <si>
@@ -86,6 +83,36 @@
     <t xml:space="preserve">* BLE 5.0
 * integrated PMU
 * 2uA - </t>
+  </si>
+  <si>
+    <t>STM32L</t>
+  </si>
+  <si>
+    <t>https://www.st.com/resource/en/flyer/flstm32l4plus.pdf</t>
+  </si>
+  <si>
+    <t>* no bt
+* no PMU</t>
+  </si>
+  <si>
+    <t>DA1469X</t>
+  </si>
+  <si>
+    <t>https://www.dialog-semiconductor.com/sites/default/files/da1469x_datasheet_3v1.pdf</t>
+  </si>
+  <si>
+    <t>nRF52840</t>
+  </si>
+  <si>
+    <t>DA14682</t>
+  </si>
+  <si>
+    <t>https://www.dialog-semiconductor.com/sites/default/files/da14682_ds_3v1.pdf</t>
+  </si>
+  <si>
+    <t>* integrated PMU
+* bt 5.0
+* 8MBit FLASH</t>
   </si>
 </sst>
 </file>
@@ -460,10 +487,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07960864-DB2C-8C48-9EDB-9590E7B330D0}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -501,50 +528,84 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="3"/>
+    </row>
+    <row r="4" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D5" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="6" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="51" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="B7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="D7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="3" t="s">
+    </row>
+    <row r="8" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="51" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="B8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="D8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>17</v>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{19DBC0E1-44C5-DE4F-989D-9766B4107670}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{9C11AB86-0CE0-914F-BAC1-A725461E37CC}"/>
-    <hyperlink ref="B5" r:id="rId3" xr:uid="{BCC0B9C2-0AC7-994F-862D-DA08B0965BD9}"/>
-    <hyperlink ref="B6" r:id="rId4" xr:uid="{8DC5ACDE-3728-E245-909B-99FD7C83A78B}"/>
+    <hyperlink ref="B5" r:id="rId2" xr:uid="{9C11AB86-0CE0-914F-BAC1-A725461E37CC}"/>
+    <hyperlink ref="B7" r:id="rId3" xr:uid="{BCC0B9C2-0AC7-994F-862D-DA08B0965BD9}"/>
+    <hyperlink ref="B8" r:id="rId4" xr:uid="{8DC5ACDE-3728-E245-909B-99FD7C83A78B}"/>
+    <hyperlink ref="B6" r:id="rId5" xr:uid="{E6E7974B-8E40-0A43-B01F-C62ADB1B97E1}"/>
+    <hyperlink ref="B3" r:id="rId6" xr:uid="{AF49394F-EB11-4547-A834-7FAC72921FEB}"/>
+    <hyperlink ref="B4" r:id="rId7" xr:uid="{B2A43241-BFD4-7745-AAE0-437724FB3925}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
